--- a/Analysis/Casos de uso.xlsx
+++ b/Analysis/Casos de uso.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\OneDrive\Documentos\Curso JAVA\Laboratorio de Programação\documentation\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF87915-C81F-4609-BC20-6B28D3DA7943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B94C28-3B49-4D2A-BCB8-8087FCA1A509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B113B668-A78B-4ECD-972E-AB438ABFB571}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="68">
   <si>
     <t>Criação de conta</t>
   </si>
@@ -56,19 +56,6 @@
     <t>Necessita titular para idades inferiores a 18 anos</t>
   </si>
   <si>
-    <t>Dados introduzidos inválidos(dividir em dados?)</t>
-  </si>
-  <si>
-    <t>Não prencheu os dados obrigatórios(dividir em dados?)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prencheu a informação necessária, apresentou a documentação de titular de conta e tem um saldo de 0€, sendo a conta encerrada
- </t>
-  </si>
-  <si>
-    <t>Não preencheu o formulário de encerramento de conta</t>
-  </si>
-  <si>
     <t xml:space="preserve">Saldo superior a 0€ </t>
   </si>
   <si>
@@ -88,9 +75,6 @@
   </si>
   <si>
     <t>Remetente/Destinatário</t>
-  </si>
-  <si>
-    <t>mudar debito/credito</t>
   </si>
   <si>
     <t>Introduziu Destinatário valido apenas apresenta transações deste Destinatário</t>
@@ -237,13 +221,26 @@
     <t>Não tem crédito nas transações</t>
   </si>
   <si>
-    <t>Selecionar Débitoapenas apresenta as transações de Débito</t>
-  </si>
-  <si>
     <t>Não tem Débito nas transações</t>
   </si>
   <si>
     <t>Associação de imagem e texto a uma transação</t>
+  </si>
+  <si>
+    <t>Não prencheu os dados obrigatórios</t>
+  </si>
+  <si>
+    <t>Dados introduzidos inválidos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prencheu a informação necessária e tem um saldo de 0€, sendo a conta encerrada
+ </t>
+  </si>
+  <si>
+    <t>Selecionar débito apenas apresenta as transações de débito</t>
+  </si>
+  <si>
+    <t>Valor máxima do crédito excedido</t>
   </si>
 </sst>
 </file>
@@ -265,7 +262,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -296,12 +293,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -441,7 +432,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -456,95 +446,98 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -862,8 +855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{970035EA-CC5D-4832-BDA5-71758468FB85}">
   <dimension ref="B1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26:E27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -879,7 +872,7 @@
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -892,29 +885,29 @@
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="31" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="45" t="s">
+      <c r="D4" s="34" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="38"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="46"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="5" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="39"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="47"/>
+      <c r="D6" s="36"/>
       <c r="E6" s="6" t="s">
         <v>6</v>
       </c>
@@ -928,36 +921,34 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="37" t="s">
+    <row r="10" spans="2:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="31" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="D10" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="9"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="38"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="32"/>
+      <c r="D11" s="42"/>
       <c r="E11" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="39"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="4"/>
-      <c r="D12" s="33"/>
+      <c r="D12" s="53"/>
       <c r="E12" s="15"/>
     </row>
     <row r="15" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C16" s="14" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>3</v>
@@ -967,107 +958,105 @@
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>14</v>
+      <c r="C17" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>10</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="38"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="29"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="42"/>
       <c r="E18" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="38"/>
+      <c r="B19" s="32"/>
       <c r="C19" s="10"/>
       <c r="D19" s="17" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="F19" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="11"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="32"/>
+      <c r="C20" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="44" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="32"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="45"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="32"/>
+      <c r="C22" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="43" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="38"/>
-      <c r="C20" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" s="43" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="38"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="44"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="38"/>
-      <c r="C22" s="37" t="s">
+    <row r="23" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="31" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="25" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
       <c r="D25" s="39"/>
       <c r="E25" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="50"/>
+      <c r="B26" s="24"/>
       <c r="C26" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="51"/>
-      <c r="E26" s="53"/>
+        <v>62</v>
+      </c>
+      <c r="D26" s="27"/>
+      <c r="E26" s="29"/>
     </row>
     <row r="27" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="50"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="54"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="30"/>
     </row>
     <row r="28" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="29" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1079,29 +1068,29 @@
       </c>
     </row>
     <row r="30" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="37" t="s">
-        <v>24</v>
+      <c r="B30" s="31" t="s">
+        <v>19</v>
       </c>
       <c r="C30" s="2"/>
-      <c r="D30" s="40" t="s">
-        <v>35</v>
+      <c r="D30" s="46" t="s">
+        <v>30</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="38"/>
+      <c r="B31" s="32"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="41"/>
+      <c r="D31" s="47"/>
       <c r="E31" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="39"/>
+      <c r="B32" s="33"/>
       <c r="C32" s="4"/>
-      <c r="D32" s="42"/>
+      <c r="D32" s="48"/>
       <c r="E32" s="15"/>
     </row>
     <row r="33" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1115,30 +1104,30 @@
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="25" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C35" s="2"/>
-      <c r="D35" s="40" t="s">
-        <v>34</v>
+      <c r="D35" s="46" t="s">
+        <v>29</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="26"/>
+      <c r="B36" s="49"/>
       <c r="C36" s="3"/>
-      <c r="D36" s="41"/>
+      <c r="D36" s="47"/>
       <c r="E36" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="27"/>
+      <c r="B37" s="26"/>
       <c r="C37" s="4"/>
-      <c r="D37" s="42"/>
+      <c r="D37" s="48"/>
       <c r="E37" s="15" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1152,28 +1141,28 @@
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B41" s="25" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C41" s="2"/>
-      <c r="D41" s="40" t="s">
-        <v>33</v>
+      <c r="D41" s="46" t="s">
+        <v>28</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B42" s="26"/>
+      <c r="B42" s="49"/>
       <c r="C42" s="3"/>
-      <c r="D42" s="41"/>
+      <c r="D42" s="47"/>
       <c r="E42" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="27"/>
+      <c r="B43" s="26"/>
       <c r="C43" s="4"/>
-      <c r="D43" s="42"/>
+      <c r="D43" s="48"/>
       <c r="E43" s="15"/>
     </row>
     <row r="44" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1187,28 +1176,28 @@
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B46" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="E46" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B47" s="26"/>
+      <c r="B47" s="49"/>
       <c r="C47" s="3"/>
-      <c r="D47" s="35"/>
+      <c r="D47" s="51"/>
       <c r="E47" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="27"/>
+      <c r="B48" s="26"/>
       <c r="C48" s="4"/>
-      <c r="D48" s="36"/>
+      <c r="D48" s="52"/>
       <c r="E48" s="15"/>
     </row>
     <row r="49" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1222,32 +1211,32 @@
     </row>
     <row r="51" spans="2:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="25" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C51" s="2"/>
-      <c r="D51" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="E51" s="31" t="s">
-        <v>25</v>
+      <c r="D51" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="E51" s="43" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B52" s="26"/>
+      <c r="B52" s="49"/>
       <c r="C52" s="3"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="32"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="38"/>
     </row>
     <row r="53" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="27"/>
+      <c r="B53" s="26"/>
       <c r="C53" s="4"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="33"/>
+      <c r="D53" s="53"/>
+      <c r="E53" s="39"/>
     </row>
     <row r="54" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="55" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C55" s="14" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>3</v>
@@ -1258,37 +1247,37 @@
     </row>
     <row r="56" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B56" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C56" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D56" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="26"/>
+      <c r="C57" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D57" s="22" t="s">
         <v>38</v>
-      </c>
-      <c r="C56" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="D56" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="27"/>
-      <c r="C57" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="D57" s="23" t="s">
-        <v>43</v>
       </c>
       <c r="E57" s="13"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B58" s="11"/>
-      <c r="C58" s="24"/>
+      <c r="C58" s="23"/>
       <c r="D58" s="11"/>
     </row>
     <row r="59" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="60" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C60" s="14" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>3</v>
@@ -1299,38 +1288,40 @@
     </row>
     <row r="61" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B61" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C61" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D61" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="49"/>
+      <c r="C62" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D62" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="26"/>
+      <c r="C63" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D63" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E63" s="21" t="s">
         <v>45</v>
-      </c>
-      <c r="C61" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="D61" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E61" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="26"/>
-      <c r="C62" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="D62" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="E62" s="5"/>
-    </row>
-    <row r="63" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="27"/>
-      <c r="C63" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D63" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="E63" s="22" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="65" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1344,28 +1335,28 @@
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B67" s="25" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C67" s="2"/>
-      <c r="D67" s="28" t="s">
-        <v>60</v>
+      <c r="D67" s="37" t="s">
+        <v>55</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B68" s="26"/>
+      <c r="B68" s="49"/>
       <c r="C68" s="3"/>
-      <c r="D68" s="29"/>
+      <c r="D68" s="42"/>
       <c r="E68" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="69" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="27"/>
+      <c r="B69" s="26"/>
       <c r="C69" s="4"/>
-      <c r="D69" s="30"/>
+      <c r="D69" s="53"/>
       <c r="E69" s="15"/>
     </row>
     <row r="71" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1379,27 +1370,27 @@
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B73" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="E73" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="C73" s="2"/>
-      <c r="D73" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="E73" s="28" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B74" s="26"/>
+      <c r="B74" s="49"/>
       <c r="C74" s="3"/>
-      <c r="D74" s="29"/>
-      <c r="E74" s="29"/>
+      <c r="D74" s="42"/>
+      <c r="E74" s="42"/>
     </row>
     <row r="75" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="27"/>
+      <c r="B75" s="26"/>
       <c r="C75" s="4"/>
-      <c r="D75" s="30"/>
-      <c r="E75" s="30"/>
+      <c r="D75" s="53"/>
+      <c r="E75" s="53"/>
     </row>
     <row r="77" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="78" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1412,30 +1403,51 @@
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B79" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="E79" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="C79" s="2"/>
-      <c r="D79" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="E79" s="28" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B80" s="26"/>
+      <c r="B80" s="49"/>
       <c r="C80" s="3"/>
-      <c r="D80" s="29"/>
-      <c r="E80" s="29"/>
+      <c r="D80" s="42"/>
+      <c r="E80" s="42"/>
     </row>
     <row r="81" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="27"/>
+      <c r="B81" s="26"/>
       <c r="C81" s="4"/>
-      <c r="D81" s="30"/>
-      <c r="E81" s="30"/>
+      <c r="D81" s="53"/>
+      <c r="E81" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="D79:D81"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="E73:E75"/>
+    <mergeCell ref="E79:E81"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="D41:D43"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="D26:D27"/>
     <mergeCell ref="E26:E27"/>
@@ -1452,27 +1464,6 @@
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="E22:E23"/>
     <mergeCell ref="C22:C25"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="D73:D75"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="D79:D81"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="E73:E75"/>
-    <mergeCell ref="E79:E81"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="D67:D69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Analysis/Casos de uso.xlsx
+++ b/Analysis/Casos de uso.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\OneDrive\Documentos\Curso JAVA\Laboratorio de Programação\documentation\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B94C28-3B49-4D2A-BCB8-8087FCA1A509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C770CF-09B3-446C-8376-4BC6FE2CB6BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B113B668-A78B-4ECD-972E-AB438ABFB571}"/>
   </bookViews>
@@ -33,16 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="68">
-  <si>
-    <t>Criação de conta</t>
-  </si>
-  <si>
-    <t>Introduzio todos os dados obrigatorios corrretamente e a conta foi criada</t>
-  </si>
-  <si>
-    <t>Encerramento de conta</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="76">
   <si>
     <t>Cenário de sucesso</t>
   </si>
@@ -50,197 +41,230 @@
     <t>Cenário de insucesso</t>
   </si>
   <si>
-    <t>Registo de transações</t>
-  </si>
-  <si>
-    <t>Necessita titular para idades inferiores a 18 anos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saldo superior a 0€ </t>
-  </si>
-  <si>
     <t>Filtro por:</t>
   </si>
   <si>
     <t>Data</t>
   </si>
   <si>
-    <t>Intervalo de datas válido, mostrar os registos no mesmo</t>
-  </si>
-  <si>
-    <t>Data inicial não pode ser antes da Data final</t>
-  </si>
-  <si>
-    <t>Conta não existia na Data inicial</t>
-  </si>
-  <si>
     <t>Remetente/Destinatário</t>
   </si>
   <si>
-    <t>Introduziu Destinatário valido apenas apresenta transações deste Destinatário</t>
-  </si>
-  <si>
-    <t>Apresenta apenas as transações da própria conta</t>
-  </si>
-  <si>
-    <t>Destinatário introduzido não tem transações</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Destinatário introduzido inválido </t>
-  </si>
-  <si>
-    <t>A conta não tem transações</t>
-  </si>
-  <si>
-    <t>Transferências via IBAN</t>
-  </si>
-  <si>
-    <t>IBAN inválido</t>
-  </si>
-  <si>
-    <t>Saldo insuficiente</t>
-  </si>
-  <si>
-    <t>Pagamentos por referência de multibanco</t>
-  </si>
-  <si>
-    <t>Entidade inválida</t>
-  </si>
-  <si>
-    <t>Referência inválida</t>
-  </si>
-  <si>
-    <t>Pagamentos ao Governo</t>
-  </si>
-  <si>
-    <t>Carregamento de telemóveis</t>
-  </si>
-  <si>
-    <t>Operadora e numero de telemovel correctos e saldo disponivel, carregamento efectuado com sucesso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Referência destino válida e saldo necessário para o pagamento, pagamento efectuado  com sucesso
+    <t xml:space="preserve">Criar </t>
+  </si>
+  <si>
+    <t>Alterar</t>
+  </si>
+  <si>
+    <t>Criar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>Tipo(Débito/Crédito)</t>
+  </si>
+  <si>
+    <t>Associação de imagem e texto a uma transação</t>
+  </si>
+  <si>
+    <t>1.Criação de conta</t>
+  </si>
+  <si>
+    <t>1.1.1.Introduziu todos os dados obrigatorios corrretamente e a conta foi criada</t>
+  </si>
+  <si>
+    <t>1.2.1.Não prencheu os dados obrigatórios</t>
+  </si>
+  <si>
+    <t>1.2.2.Dados introduzidos inválidos</t>
+  </si>
+  <si>
+    <t>1.2.3.Necessita titular para idades inferiores a 18 anos</t>
+  </si>
+  <si>
+    <t>2.Encerramento de conta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.1.Prencheu a informação necessária e tem um saldo de 0€, sendo a conta encerrada
  </t>
   </si>
   <si>
-    <t xml:space="preserve">Referência e entidade destino válidas e saldo necessário para o pagamento, pagamento efectuado  com sucesso
+    <t xml:space="preserve">2.2.1.Saldo superior a 0€ </t>
+  </si>
+  <si>
+    <t>3.Registo de transações</t>
+  </si>
+  <si>
+    <t>3.1.1.Intervalo de datas válido, mostrar os registos no mesmo</t>
+  </si>
+  <si>
+    <t>3.1.2.Selecionar crédito apenas apresenta as transações de crédito</t>
+  </si>
+  <si>
+    <t>3.1.3.Selecionar débito apenas apresenta as transações de débito</t>
+  </si>
+  <si>
+    <t>3.1.4.Apresenta apenas as transações da própria conta</t>
+  </si>
+  <si>
+    <t>3.1.5.Introduziu Destinatário valido apenas apresenta transações deste Destinatário</t>
+  </si>
+  <si>
+    <t>3.2.1.Data inicial não pode ser antes da Data final</t>
+  </si>
+  <si>
+    <t>3.2.2.Conta não existia na Data inicial</t>
+  </si>
+  <si>
+    <t>3.2.3.Não tem crédito nas transações</t>
+  </si>
+  <si>
+    <t>3.2.4.Não tem débito nas transações</t>
+  </si>
+  <si>
+    <t>3.2.5.A conta não tem transações</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2.6.Destinatário introduzido inválido </t>
+  </si>
+  <si>
+    <t>3.2.7.Destinatário introduzido não tem transações</t>
+  </si>
+  <si>
+    <t>4.Transferências via IBAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1.1.IBAN destino válido e saldo necessário para a transferência, tranferência efectuada  com sucesso
  </t>
   </si>
   <si>
-    <t xml:space="preserve">IBAN destino válido e saldo necessário para a transferência, tranferência efectuada  com sucesso
+    <t>4.2.1.IBAN inválido</t>
+  </si>
+  <si>
+    <t>4.2.2.Saldo insuficiente</t>
+  </si>
+  <si>
+    <t>5.Pagamentos por referência de multibanco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.1.Referência e entidade destino válidas e saldo necessário para o pagamento, pagamento efectuado  com sucesso
  </t>
   </si>
   <si>
-    <t>Numero de telemovel não pertence à operadora selecionada</t>
-  </si>
-  <si>
-    <t>Agendamento de transferências</t>
-  </si>
-  <si>
-    <t>Gestão de débitos diretos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criar </t>
-  </si>
-  <si>
-    <t>Alterar</t>
-  </si>
-  <si>
-    <t>Apagar</t>
-  </si>
-  <si>
-    <t>Periocidade e entidade credora validas, valor inserido é criado o débito directo</t>
-  </si>
-  <si>
-    <t>Activo/Inactivo (opções) e muda o esta para o selecionada</t>
-  </si>
-  <si>
-    <t>Entidade credora inválida</t>
-  </si>
-  <si>
-    <t>Gestão de cartões</t>
-  </si>
-  <si>
-    <t>Criar</t>
-  </si>
-  <si>
-    <t>Escolher tipo de cartão (débito/crédito), criado o cartão selecionado</t>
-  </si>
-  <si>
-    <t>Não é possivel criar mais cartões</t>
-  </si>
-  <si>
-    <t>Cartão Eliminado</t>
-  </si>
-  <si>
-    <t>(Cartão não foi eliminado e ainda aparece na lista de cartões)</t>
-  </si>
-  <si>
-    <t>Limite do cartão de crédito</t>
-  </si>
-  <si>
-    <t>Criação de contas-poupança</t>
-  </si>
-  <si>
-    <t>Emissão de comprovativo de IBAN</t>
-  </si>
-  <si>
-    <t>Emissão de extrato de conta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    </t>
-  </si>
-  <si>
-    <t>IBAN válido a transferência é agendada</t>
-  </si>
-  <si>
-    <t>Comprovativo descarregado</t>
-  </si>
-  <si>
-    <t>Não foi possivel o download do comprovativo por falta de autorização (definições do telemovel)</t>
-  </si>
-  <si>
-    <t>Não foi possivel o download do extrato da conta por falta de autorização (definições do telemovel)</t>
-  </si>
-  <si>
-    <t>Conta criada e associada ao cliente</t>
-  </si>
-  <si>
-    <t>Não selecionou o tipo de conta a conta não foi criada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Limite de contas-poupança atingido </t>
-  </si>
-  <si>
-    <t>Tipo(Débito/Crédito)</t>
-  </si>
-  <si>
-    <t>Selecionar crédito apenas apresenta as transações de crédito</t>
-  </si>
-  <si>
-    <t>Não tem crédito nas transações</t>
-  </si>
-  <si>
-    <t>Não tem Débito nas transações</t>
-  </si>
-  <si>
-    <t>Associação de imagem e texto a uma transação</t>
-  </si>
-  <si>
-    <t>Não prencheu os dados obrigatórios</t>
-  </si>
-  <si>
-    <t>Dados introduzidos inválidos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prencheu a informação necessária e tem um saldo de 0€, sendo a conta encerrada
+    <t>5.2.1.Referência inválida</t>
+  </si>
+  <si>
+    <t>5.2.2.Saldo insuficiente</t>
+  </si>
+  <si>
+    <t>5.2.3.Entidade inválida</t>
+  </si>
+  <si>
+    <t>6.Pagamentos ao Governo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1.1.Referência destino válida e saldo necessário para o pagamento, pagamento efectuado  com sucesso
  </t>
   </si>
   <si>
-    <t>Selecionar débito apenas apresenta as transações de débito</t>
-  </si>
-  <si>
-    <t>Valor máxima do crédito excedido</t>
+    <t>6.2.1.Referência inválida</t>
+  </si>
+  <si>
+    <t>6.2.2.Saldo insuficiente</t>
+  </si>
+  <si>
+    <t>7.Carregamento de telemóveis</t>
+  </si>
+  <si>
+    <t>7.1.1. Operadora e numero de telemovel correctos e saldo disponivel, carregamento efectuado com sucesso</t>
+  </si>
+  <si>
+    <t>7.2.1.Numero de telemovel não pertence à operadora selecionada</t>
+  </si>
+  <si>
+    <t>7.2.2.Saldo insuficiente</t>
+  </si>
+  <si>
+    <t>8.Agendamento de transferências</t>
+  </si>
+  <si>
+    <t>8.1.1.IBAN válido a transferência é agendada</t>
+  </si>
+  <si>
+    <t>8.2.1.IBAN inválido</t>
+  </si>
+  <si>
+    <t>9.Gestão de débitos diretos</t>
+  </si>
+  <si>
+    <t>9.1.1.Periocidade e entidade credora validas, valor inserido é criado o débito directo</t>
+  </si>
+  <si>
+    <t>9.2.1.Entidade credora inválida</t>
+  </si>
+  <si>
+    <t>10.Gestão de débitos diretos</t>
+  </si>
+  <si>
+    <t>10.1.1.Activo/Inactivo (opções) e muda o que esta para o selecionada</t>
+  </si>
+  <si>
+    <t>10.2.1.Entidade credora inválida</t>
+  </si>
+  <si>
+    <t>11.Gestão de cartões</t>
+  </si>
+  <si>
+    <t>12.Gestão de cartões</t>
+  </si>
+  <si>
+    <t>11.2.1.Não é possivel criar mais cartões</t>
+  </si>
+  <si>
+    <t>14.Criação de contas-poupança</t>
+  </si>
+  <si>
+    <t>14.1.1.Conta criada e associada ao cliente</t>
+  </si>
+  <si>
+    <t>14.2.1.Não selecionou o tipo de conta a conta não foi criada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2.2.Limite de contas-poupança atingido </t>
+  </si>
+  <si>
+    <t>15.Emissão de comprovativo de IBAN</t>
+  </si>
+  <si>
+    <t>15.1.1.Comprovativo descarregado do ultimo mês</t>
+  </si>
+  <si>
+    <t>15.2.1.Não foi possivel o download do comprovativo por falta de autorização (definições do telemovel)</t>
+  </si>
+  <si>
+    <t>16.Emissão de extrato de conta</t>
+  </si>
+  <si>
+    <t>16.1.1.Comprovativo descarregado do ultimo mês</t>
+  </si>
+  <si>
+    <t>16.2.1.Não foi possivel o download do extrato da conta por falta de autorização (definições do telemovel)</t>
+  </si>
+  <si>
+    <t>11.1.1.Escolher tipo de cartão, criado o cartão selecionado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1.1.Activo/Inactivo pagamentos online </t>
+  </si>
+  <si>
+    <t>12.1.2.Activo/Inactivo pagamentos NFC</t>
+  </si>
+  <si>
+    <t>12.1.3.PIN alterado</t>
+  </si>
+  <si>
+    <t>12.2.1. PIN inválido</t>
   </si>
 </sst>
 </file>
@@ -294,7 +318,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -403,11 +427,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -433,13 +470,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -449,12 +479,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -468,15 +549,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -485,58 +557,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -853,10 +915,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{970035EA-CC5D-4832-BDA5-71758468FB85}">
-  <dimension ref="B1:F81"/>
+  <dimension ref="B1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -864,7 +926,7 @@
     <col min="1" max="1" width="3.21875" customWidth="1"/>
     <col min="2" max="2" width="24.44140625" customWidth="1"/>
     <col min="3" max="3" width="22.44140625" customWidth="1"/>
-    <col min="4" max="4" width="67.109375" customWidth="1"/>
+    <col min="4" max="4" width="85.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="51.109375" customWidth="1"/>
     <col min="6" max="6" width="19.44140625" customWidth="1"/>
     <col min="7" max="7" width="41.6640625" customWidth="1"/>
@@ -872,582 +934,617 @@
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D3" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="31" t="s">
-        <v>0</v>
+      <c r="B4" s="35" t="s">
+        <v>11</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="34" t="s">
-        <v>1</v>
+      <c r="D4" s="45" t="s">
+        <v>12</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="32"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="35"/>
+      <c r="D5" s="46"/>
       <c r="E5" s="5" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="33"/>
+      <c r="B6" s="37"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="36"/>
+      <c r="D6" s="47"/>
       <c r="E6" s="6" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D9" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="31" t="s">
-        <v>2</v>
+      <c r="B10" s="35" t="s">
+        <v>16</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="37" t="s">
-        <v>65</v>
+      <c r="D10" s="38" t="s">
+        <v>17</v>
       </c>
       <c r="E10" s="9"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="32"/>
+      <c r="B11" s="36"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="42"/>
+      <c r="D11" s="39"/>
       <c r="E11" s="5" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="33"/>
+      <c r="B12" s="37"/>
       <c r="C12" s="4"/>
-      <c r="D12" s="53"/>
+      <c r="D12" s="40"/>
       <c r="E12" s="15"/>
     </row>
     <row r="15" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C16" s="14" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="37" t="s">
-        <v>10</v>
+      <c r="D17" s="26" t="s">
+        <v>20</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="32"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="42"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="27"/>
       <c r="E18" s="5" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="32"/>
+      <c r="B19" s="36"/>
       <c r="C19" s="10"/>
       <c r="D19" s="17" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="F19" s="11"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="32"/>
-      <c r="C20" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" s="44" t="s">
-        <v>61</v>
+      <c r="B20" s="36"/>
+      <c r="C20" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="50" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="32"/>
+      <c r="B21" s="36"/>
       <c r="C21" s="12"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="45"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="51"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="32"/>
-      <c r="C22" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="43" t="s">
-        <v>18</v>
+      <c r="B22" s="36"/>
+      <c r="C22" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="43" t="s">
-        <v>14</v>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="29" t="s">
+        <v>24</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="39"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="31"/>
       <c r="E25" s="1" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="24"/>
-      <c r="C26" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="D26" s="27"/>
-      <c r="E26" s="29"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="41"/>
+      <c r="E26" s="43"/>
     </row>
     <row r="27" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="24"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="30"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="44"/>
     </row>
     <row r="28" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="29" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D29" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="31" t="s">
-        <v>19</v>
+      <c r="B30" s="35" t="s">
+        <v>32</v>
       </c>
       <c r="C30" s="2"/>
-      <c r="D30" s="46" t="s">
-        <v>30</v>
+      <c r="D30" s="38" t="s">
+        <v>33</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="32"/>
+      <c r="B31" s="36"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="47"/>
+      <c r="D31" s="39"/>
       <c r="E31" s="5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="33"/>
+      <c r="B32" s="37"/>
       <c r="C32" s="4"/>
-      <c r="D32" s="48"/>
+      <c r="D32" s="40"/>
       <c r="E32" s="15"/>
     </row>
     <row r="33" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="34" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D34" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="25" t="s">
-        <v>22</v>
+      <c r="B35" s="23" t="s">
+        <v>36</v>
       </c>
       <c r="C35" s="2"/>
-      <c r="D35" s="46" t="s">
-        <v>29</v>
+      <c r="D35" s="38" t="s">
+        <v>37</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="49"/>
+      <c r="B36" s="24"/>
       <c r="C36" s="3"/>
-      <c r="D36" s="47"/>
+      <c r="D36" s="39"/>
       <c r="E36" s="5" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="26"/>
+      <c r="B37" s="25"/>
       <c r="C37" s="4"/>
-      <c r="D37" s="48"/>
+      <c r="D37" s="40"/>
       <c r="E37" s="15" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="40" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D40" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B41" s="25" t="s">
-        <v>25</v>
+      <c r="B41" s="23" t="s">
+        <v>41</v>
       </c>
       <c r="C41" s="2"/>
-      <c r="D41" s="46" t="s">
-        <v>28</v>
+      <c r="D41" s="38" t="s">
+        <v>42</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B42" s="49"/>
+      <c r="B42" s="24"/>
       <c r="C42" s="3"/>
-      <c r="D42" s="47"/>
+      <c r="D42" s="39"/>
       <c r="E42" s="5" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="26"/>
+      <c r="B43" s="25"/>
       <c r="C43" s="4"/>
-      <c r="D43" s="48"/>
+      <c r="D43" s="40"/>
       <c r="E43" s="15"/>
     </row>
     <row r="44" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="45" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D45" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B46" s="25" t="s">
-        <v>26</v>
+      <c r="B46" s="23" t="s">
+        <v>45</v>
       </c>
       <c r="C46" s="2"/>
-      <c r="D46" s="50" t="s">
-        <v>27</v>
+      <c r="D46" s="32" t="s">
+        <v>46</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B47" s="49"/>
+      <c r="B47" s="24"/>
       <c r="C47" s="3"/>
-      <c r="D47" s="51"/>
+      <c r="D47" s="33"/>
       <c r="E47" s="5" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="26"/>
+      <c r="B48" s="25"/>
       <c r="C48" s="4"/>
-      <c r="D48" s="52"/>
+      <c r="D48" s="34"/>
       <c r="E48" s="15"/>
     </row>
     <row r="49" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="50" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D50" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="2:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="25" t="s">
-        <v>32</v>
+      <c r="B51" s="23" t="s">
+        <v>49</v>
       </c>
       <c r="C51" s="2"/>
-      <c r="D51" s="37" t="s">
+      <c r="D51" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="E51" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="E51" s="43" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B52" s="49"/>
+      <c r="B52" s="24"/>
       <c r="C52" s="3"/>
-      <c r="D52" s="42"/>
-      <c r="E52" s="38"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="30"/>
     </row>
     <row r="53" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="26"/>
+      <c r="B53" s="25"/>
       <c r="C53" s="4"/>
-      <c r="D53" s="53"/>
-      <c r="E53" s="39"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="31"/>
     </row>
     <row r="54" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="55" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C55" s="14" t="s">
-        <v>8</v>
-      </c>
+      <c r="C55" s="59"/>
       <c r="D55" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C56" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D56" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>39</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B56" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C56" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E56" s="29" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="26"/>
-      <c r="C57" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D57" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E57" s="13"/>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B58" s="11"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="11"/>
-    </row>
-    <row r="59" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="60" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C60" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>4</v>
+      <c r="B57" s="25"/>
+      <c r="C57" s="57"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="31"/>
+    </row>
+    <row r="58" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="52"/>
+      <c r="C58" s="53"/>
+      <c r="D58" s="54"/>
+      <c r="E58" s="55"/>
+    </row>
+    <row r="59" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C59" s="59"/>
+      <c r="D59" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B60" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C60" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="E60" s="29" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C61" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D61" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="E61" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="49"/>
-      <c r="C62" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D62" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="E62" s="5" t="s">
+      <c r="B61" s="25"/>
+      <c r="C61" s="57"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="31"/>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B62" s="52"/>
+      <c r="C62" s="53"/>
+      <c r="D62" s="54"/>
+      <c r="E62" s="55"/>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B63" s="11"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="11"/>
+    </row>
+    <row r="64" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="65" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C65" s="59"/>
+      <c r="D65" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="C66" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="60"/>
+      <c r="C67" s="53"/>
+      <c r="D67" s="54"/>
+      <c r="E67" s="55"/>
+    </row>
+    <row r="68" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C68" s="59"/>
+      <c r="D68" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C69" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="E69" s="13"/>
+    </row>
+    <row r="70" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="24"/>
+      <c r="C70" s="58"/>
+      <c r="D70" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="E70" s="13"/>
+    </row>
+    <row r="71" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="25"/>
+      <c r="C71" s="57"/>
+      <c r="D71" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="74" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D74" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B75" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B76" s="24"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="27"/>
+      <c r="E76" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B77" s="25"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="15"/>
+    </row>
+    <row r="79" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="80" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D80" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B81" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="E81" s="26" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="63" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="26"/>
-      <c r="C63" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D63" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="E63" s="21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="66" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D66" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E66" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B67" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="C67" s="2"/>
-      <c r="D67" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="E67" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B68" s="49"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="42"/>
-      <c r="E68" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="26"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="53"/>
-      <c r="E69" s="15"/>
-    </row>
-    <row r="71" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="72" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D72" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E72" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B73" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="C73" s="2"/>
-      <c r="D73" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="E73" s="37" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B74" s="49"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="42"/>
-      <c r="E74" s="42"/>
-    </row>
-    <row r="75" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="26"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="53"/>
-      <c r="E75" s="53"/>
-    </row>
-    <row r="77" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="78" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D78" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E78" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B79" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="C79" s="2"/>
-      <c r="D79" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="E79" s="37" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B80" s="49"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="42"/>
-      <c r="E80" s="42"/>
-    </row>
-    <row r="81" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="26"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="53"/>
-      <c r="E81" s="53"/>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B82" s="24"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="27"/>
+      <c r="E82" s="27"/>
+    </row>
+    <row r="83" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B83" s="25"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="28"/>
+      <c r="E83" s="28"/>
+    </row>
+    <row r="85" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="86" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D86" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B87" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E87" s="26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B88" s="24"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="27"/>
+      <c r="E88" s="27"/>
+    </row>
+    <row r="89" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B89" s="25"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="28"/>
+      <c r="E89" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="D73:D75"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="D79:D81"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="E73:E75"/>
-    <mergeCell ref="E79:E81"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="D41:D43"/>
+  <mergeCells count="45">
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="B69:B71"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="D26:D27"/>
     <mergeCell ref="E26:E27"/>
@@ -1464,6 +1561,33 @@
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="E22:E23"/>
     <mergeCell ref="C22:C25"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="D81:D83"/>
+    <mergeCell ref="B87:B89"/>
+    <mergeCell ref="D87:D89"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="E81:E83"/>
+    <mergeCell ref="E87:E89"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="D75:D77"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
